--- a/notebooks/TGFB2/input/TGFB2_LDS4_individuals.xlsx
+++ b/notebooks/TGFB2/input/TGFB2_LDS4_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/TGFB2/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/TGFB2/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19D148C-4FDD-2E47-902E-11119468E29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FF931D-0BDA-BA41-A541-FBEBFFF050E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="760" windowWidth="32180" windowHeight="20280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="1980" windowWidth="36320" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="217">
   <si>
     <t>PMID</t>
   </si>
@@ -576,6 +576,114 @@
   </si>
   <si>
     <t>HP:0000272</t>
+  </si>
+  <si>
+    <t>PMID:25163805</t>
+  </si>
+  <si>
+    <t>Further delineation of Loeys-Dietz syndrome type 4 in a family with mild vascular involvement and a TGFB2 splicing mutation</t>
+  </si>
+  <si>
+    <t>proposita</t>
+  </si>
+  <si>
+    <t>P57Y</t>
+  </si>
+  <si>
+    <t>Childhood onset</t>
+  </si>
+  <si>
+    <t>Shoulder dislocation</t>
+  </si>
+  <si>
+    <t>HP:0003834</t>
+  </si>
+  <si>
+    <t>Knee dislocation</t>
+  </si>
+  <si>
+    <t>HP:0004976</t>
+  </si>
+  <si>
+    <t>Back pain</t>
+  </si>
+  <si>
+    <t>HP:0003418</t>
+  </si>
+  <si>
+    <t>P20Y</t>
+  </si>
+  <si>
+    <t>Herniation of intervertebral nuclei</t>
+  </si>
+  <si>
+    <t>HP:0008441</t>
+  </si>
+  <si>
+    <t>Femoral hernia</t>
+  </si>
+  <si>
+    <t>HP:0100541</t>
+  </si>
+  <si>
+    <t>Hiatus hernia</t>
+  </si>
+  <si>
+    <t>HP:0002036</t>
+  </si>
+  <si>
+    <t>Gingival fragility</t>
+  </si>
+  <si>
+    <t>HP:0034518</t>
+  </si>
+  <si>
+    <t>Headache</t>
+  </si>
+  <si>
+    <t>HP:0002315</t>
+  </si>
+  <si>
+    <t>Short uvula</t>
+  </si>
+  <si>
+    <t>HP:0010812</t>
+  </si>
+  <si>
+    <t>Blue sclerae</t>
+  </si>
+  <si>
+    <t>HP:0000592</t>
+  </si>
+  <si>
+    <t>Long philtrum</t>
+  </si>
+  <si>
+    <t>HP:0000343</t>
+  </si>
+  <si>
+    <t>Carotid artery tortuosity</t>
+  </si>
+  <si>
+    <t>HP:0005302</t>
+  </si>
+  <si>
+    <t>Vertebral artery tortuosity</t>
+  </si>
+  <si>
+    <t>HP:0033981</t>
+  </si>
+  <si>
+    <t>Tortuous cerebral arteries</t>
+  </si>
+  <si>
+    <t>HP:0004938</t>
+  </si>
+  <si>
+    <t>c.755-1G&gt;A</t>
+  </si>
+  <si>
+    <t>GRCh38:1:218435969:G:A</t>
   </si>
 </sst>
 </file>
@@ -641,7 +749,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -650,6 +758,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -954,10 +1065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV36"/>
+  <dimension ref="A1:BJ37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1:AD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="AI37" sqref="AI37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -965,7 +1076,7 @@
     <col min="4" max="16" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:62" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1033,85 +1144,127 @@
         <v>20</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AK1" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="AL1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AV1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>177</v>
       </c>
+      <c r="BF1" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>201</v>
+      </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1179,85 +1332,127 @@
         <v>56</v>
       </c>
       <c r="W2" t="s">
+        <v>204</v>
+      </c>
+      <c r="X2" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y2" t="s">
         <v>57</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA2" t="s">
         <v>58</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>59</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" t="s">
         <v>60</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AD2" t="s">
         <v>61</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AE2" t="s">
         <v>62</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AF2" t="s">
         <v>63</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AG2" t="s">
         <v>64</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AH2" t="s">
         <v>65</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AI2" t="s">
         <v>66</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AJ2" t="s">
         <v>67</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AK2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AL2" t="s">
         <v>112</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AM2" t="s">
         <v>68</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AN2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>198</v>
+      </c>
+      <c r="AP2" t="s">
         <v>69</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AQ2" t="s">
         <v>70</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AR2" t="s">
         <v>71</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AS2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AV2" t="s">
         <v>72</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AW2" t="s">
         <v>73</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AX2" t="s">
         <v>74</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AY2" t="s">
         <v>75</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AZ2" t="s">
         <v>76</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="BA2" t="s">
         <v>114</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="BB2" t="s">
         <v>116</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="BC2" t="s">
         <v>174</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="BD2" t="s">
         <v>176</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="BE2" t="s">
         <v>178</v>
       </c>
+      <c r="BF2" t="s">
+        <v>187</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>189</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>191</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>200</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>202</v>
+      </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -1315,23 +1510,14 @@
       <c r="V3" t="s">
         <v>52</v>
       </c>
-      <c r="W3" t="s">
-        <v>109</v>
-      </c>
-      <c r="X3" t="s">
-        <v>110</v>
-      </c>
       <c r="Y3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z3" t="s">
         <v>109</v>
       </c>
       <c r="AA3" t="s">
         <v>110</v>
       </c>
       <c r="AB3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AC3" t="s">
         <v>109</v>
@@ -1346,37 +1532,46 @@
         <v>109</v>
       </c>
       <c r="AG3" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="AH3" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="AI3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AJ3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>110</v>
+        <v>52</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>52</v>
       </c>
       <c r="AM3" t="s">
         <v>110</v>
       </c>
-      <c r="AN3" t="s">
-        <v>109</v>
+      <c r="AP3" t="s">
+        <v>110</v>
       </c>
       <c r="AQ3" t="s">
         <v>110</v>
       </c>
-      <c r="AR3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AS3" t="s">
+      <c r="AV3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -1434,26 +1629,17 @@
       <c r="V4" t="s">
         <v>52</v>
       </c>
-      <c r="W4" t="s">
-        <v>110</v>
-      </c>
-      <c r="X4" t="s">
-        <v>109</v>
-      </c>
       <c r="Y4" t="s">
         <v>110</v>
       </c>
-      <c r="Z4" t="s">
-        <v>109</v>
-      </c>
       <c r="AA4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AB4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AC4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AD4" t="s">
         <v>110</v>
@@ -1462,40 +1648,49 @@
         <v>109</v>
       </c>
       <c r="AF4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG4" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="AH4" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="AI4" t="s">
         <v>109</v>
       </c>
       <c r="AJ4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>110</v>
+        <v>52</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>52</v>
       </c>
       <c r="AM4" t="s">
         <v>109</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AP4" t="s">
         <v>109</v>
       </c>
       <c r="AQ4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AS4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>109</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -1556,20 +1751,11 @@
       <c r="V5" t="s">
         <v>52</v>
       </c>
-      <c r="W5" t="s">
-        <v>110</v>
-      </c>
-      <c r="X5" t="s">
-        <v>109</v>
-      </c>
       <c r="Y5" t="s">
         <v>110</v>
       </c>
-      <c r="Z5" t="s">
-        <v>109</v>
-      </c>
       <c r="AA5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AB5" t="s">
         <v>110</v>
@@ -1587,37 +1773,46 @@
         <v>109</v>
       </c>
       <c r="AG5" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="AH5" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="AI5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AJ5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>110</v>
+        <v>52</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>52</v>
       </c>
       <c r="AM5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AN5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP5" t="s">
         <v>109</v>
       </c>
       <c r="AQ5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AS5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>109</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -1678,16 +1873,7 @@
       <c r="V6" t="s">
         <v>52</v>
       </c>
-      <c r="W6" t="s">
-        <v>109</v>
-      </c>
-      <c r="X6" t="s">
-        <v>110</v>
-      </c>
       <c r="Y6" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z6" t="s">
         <v>109</v>
       </c>
       <c r="AA6" t="s">
@@ -1697,49 +1883,58 @@
         <v>110</v>
       </c>
       <c r="AC6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AD6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AE6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG6" t="s">
         <v>109</v>
       </c>
       <c r="AH6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AI6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AJ6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>109</v>
+        <v>109</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>110</v>
       </c>
       <c r="AM6" t="s">
-        <v>109</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>52</v>
       </c>
       <c r="AQ6" t="s">
-        <v>110</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>109</v>
-      </c>
-      <c r="AS6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -1797,18 +1992,9 @@
       <c r="V7" t="s">
         <v>52</v>
       </c>
-      <c r="W7" t="s">
-        <v>110</v>
-      </c>
-      <c r="X7" t="s">
-        <v>110</v>
-      </c>
       <c r="Y7" t="s">
         <v>110</v>
       </c>
-      <c r="Z7" t="s">
-        <v>109</v>
-      </c>
       <c r="AA7" t="s">
         <v>110</v>
       </c>
@@ -1816,13 +2002,13 @@
         <v>110</v>
       </c>
       <c r="AC7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AD7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AE7" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="AF7" t="s">
         <v>110</v>
@@ -1831,34 +2017,43 @@
         <v>109</v>
       </c>
       <c r="AH7" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="AI7" t="s">
         <v>110</v>
       </c>
       <c r="AJ7" t="s">
-        <v>110</v>
-      </c>
-      <c r="AK7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL7" t="s">
         <v>110</v>
       </c>
       <c r="AM7" t="s">
-        <v>109</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>110</v>
       </c>
       <c r="AQ7" t="s">
         <v>110</v>
       </c>
-      <c r="AR7" t="s">
-        <v>109</v>
-      </c>
-      <c r="AS7" t="s">
+      <c r="AV7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>110</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -1916,18 +2111,9 @@
       <c r="V8" t="s">
         <v>52</v>
       </c>
-      <c r="W8" t="s">
-        <v>110</v>
-      </c>
-      <c r="X8" t="s">
-        <v>110</v>
-      </c>
       <c r="Y8" t="s">
         <v>110</v>
       </c>
-      <c r="Z8" t="s">
-        <v>109</v>
-      </c>
       <c r="AA8" t="s">
         <v>110</v>
       </c>
@@ -1935,13 +2121,13 @@
         <v>110</v>
       </c>
       <c r="AC8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AD8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AE8" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="AF8" t="s">
         <v>110</v>
@@ -1950,34 +2136,43 @@
         <v>109</v>
       </c>
       <c r="AH8" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="AI8" t="s">
         <v>110</v>
       </c>
       <c r="AJ8" t="s">
-        <v>110</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>109</v>
       </c>
       <c r="AM8" t="s">
-        <v>109</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>110</v>
       </c>
       <c r="AQ8" t="s">
         <v>110</v>
       </c>
-      <c r="AR8" t="s">
-        <v>109</v>
-      </c>
-      <c r="AS8" t="s">
+      <c r="AV8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>110</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -2035,16 +2230,7 @@
       <c r="V9" t="s">
         <v>52</v>
       </c>
-      <c r="W9" t="s">
-        <v>109</v>
-      </c>
-      <c r="X9" t="s">
-        <v>109</v>
-      </c>
       <c r="Y9" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z9" t="s">
         <v>109</v>
       </c>
       <c r="AA9" t="s">
@@ -2054,22 +2240,22 @@
         <v>110</v>
       </c>
       <c r="AC9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AD9" t="s">
         <v>109</v>
       </c>
       <c r="AE9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG9" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="AH9" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="AI9" t="s">
         <v>109</v>
@@ -2077,26 +2263,35 @@
       <c r="AJ9" t="s">
         <v>52</v>
       </c>
-      <c r="AK9" t="s">
-        <v>110</v>
+      <c r="AL9" t="s">
+        <v>52</v>
       </c>
       <c r="AM9" t="s">
         <v>109</v>
       </c>
-      <c r="AN9" t="s">
-        <v>109</v>
+      <c r="AP9" t="s">
+        <v>52</v>
       </c>
       <c r="AQ9" t="s">
-        <v>109</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>109</v>
-      </c>
-      <c r="AS9" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>109</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -2157,68 +2352,68 @@
       <c r="V10" t="s">
         <v>110</v>
       </c>
-      <c r="W10" t="s">
-        <v>110</v>
-      </c>
-      <c r="X10" t="s">
-        <v>109</v>
-      </c>
       <c r="Y10" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AB10" t="s">
         <v>109</v>
       </c>
       <c r="AC10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AD10" t="s">
         <v>110</v>
       </c>
       <c r="AE10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG10" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="AH10" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="AI10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AJ10" t="s">
         <v>52</v>
       </c>
-      <c r="AK10" t="s">
-        <v>110</v>
+      <c r="AL10" t="s">
+        <v>52</v>
       </c>
       <c r="AM10" t="s">
         <v>110</v>
       </c>
-      <c r="AN10" t="s">
-        <v>109</v>
+      <c r="AP10" t="s">
+        <v>52</v>
       </c>
       <c r="AQ10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AS10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -2276,17 +2471,8 @@
       <c r="V11" t="s">
         <v>52</v>
       </c>
-      <c r="W11" t="s">
-        <v>110</v>
-      </c>
-      <c r="X11" t="s">
-        <v>109</v>
-      </c>
       <c r="Y11" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA11" t="s">
         <v>109</v>
@@ -2295,49 +2481,58 @@
         <v>109</v>
       </c>
       <c r="AC11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AD11" t="s">
         <v>109</v>
       </c>
       <c r="AE11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG11" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="AH11" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="AI11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AJ11" t="s">
-        <v>110</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>110</v>
+        <v>52</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>52</v>
       </c>
       <c r="AM11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>110</v>
       </c>
       <c r="AQ11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>110</v>
-      </c>
-      <c r="AS11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>109</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>110</v>
+      </c>
+      <c r="BB11" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -2395,18 +2590,9 @@
       <c r="V12" t="s">
         <v>52</v>
       </c>
-      <c r="W12" t="s">
-        <v>109</v>
-      </c>
-      <c r="X12" t="s">
-        <v>109</v>
-      </c>
       <c r="Y12" t="s">
         <v>109</v>
       </c>
-      <c r="Z12" t="s">
-        <v>109</v>
-      </c>
       <c r="AA12" t="s">
         <v>109</v>
       </c>
@@ -2420,43 +2606,52 @@
         <v>109</v>
       </c>
       <c r="AE12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF12" t="s">
         <v>109</v>
       </c>
       <c r="AG12" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="AH12" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="AI12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AJ12" t="s">
         <v>52</v>
       </c>
-      <c r="AK12" t="s">
-        <v>110</v>
+      <c r="AL12" t="s">
+        <v>52</v>
       </c>
       <c r="AM12" t="s">
-        <v>109</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>52</v>
       </c>
       <c r="AQ12" t="s">
         <v>110</v>
       </c>
-      <c r="AR12" t="s">
-        <v>110</v>
-      </c>
-      <c r="AS12" t="s">
+      <c r="AV12" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>110</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>110</v>
+      </c>
+      <c r="BB12" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:48" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:62" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -2517,17 +2712,8 @@
       <c r="V13" t="s">
         <v>52</v>
       </c>
-      <c r="W13" t="s">
-        <v>110</v>
-      </c>
-      <c r="X13" t="s">
-        <v>109</v>
-      </c>
       <c r="Y13" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA13" t="s">
         <v>109</v>
@@ -2542,43 +2728,52 @@
         <v>109</v>
       </c>
       <c r="AE13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AG13" t="s">
         <v>109</v>
       </c>
-      <c r="AH13" s="3" t="s">
+      <c r="AH13" t="s">
         <v>110</v>
       </c>
       <c r="AI13" t="s">
         <v>110</v>
       </c>
       <c r="AJ13" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL13" s="3" t="s">
         <v>110</v>
       </c>
       <c r="AM13" t="s">
-        <v>109</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>52</v>
       </c>
       <c r="AQ13" t="s">
-        <v>109</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>110</v>
-      </c>
-      <c r="AS13" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>109</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>110</v>
+      </c>
+      <c r="BB13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -2636,17 +2831,8 @@
       <c r="V14" t="s">
         <v>52</v>
       </c>
-      <c r="W14" t="s">
-        <v>110</v>
-      </c>
-      <c r="X14" t="s">
-        <v>109</v>
-      </c>
       <c r="Y14" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA14" t="s">
         <v>109</v>
@@ -2661,13 +2847,13 @@
         <v>109</v>
       </c>
       <c r="AE14" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="AF14" t="s">
         <v>109</v>
       </c>
       <c r="AG14" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="AH14" t="s">
         <v>52</v>
@@ -2678,26 +2864,35 @@
       <c r="AJ14" t="s">
         <v>52</v>
       </c>
-      <c r="AK14" t="s">
-        <v>110</v>
+      <c r="AL14" t="s">
+        <v>52</v>
       </c>
       <c r="AM14" t="s">
         <v>109</v>
       </c>
-      <c r="AN14" t="s">
-        <v>110</v>
+      <c r="AP14" t="s">
+        <v>52</v>
       </c>
       <c r="AQ14" t="s">
-        <v>109</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>109</v>
-      </c>
-      <c r="AS14" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>110</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>109</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB14" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -2755,23 +2950,14 @@
       <c r="V15" t="s">
         <v>52</v>
       </c>
-      <c r="W15" t="s">
-        <v>110</v>
-      </c>
-      <c r="X15" t="s">
-        <v>109</v>
-      </c>
       <c r="Y15" t="s">
         <v>110</v>
       </c>
-      <c r="Z15" t="s">
-        <v>109</v>
-      </c>
       <c r="AA15" t="s">
         <v>109</v>
       </c>
       <c r="AB15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AC15" t="s">
         <v>109</v>
@@ -2780,13 +2966,13 @@
         <v>109</v>
       </c>
       <c r="AE15" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="AF15" t="s">
         <v>109</v>
       </c>
       <c r="AG15" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="AH15" t="s">
         <v>52</v>
@@ -2797,26 +2983,35 @@
       <c r="AJ15" t="s">
         <v>52</v>
       </c>
-      <c r="AK15" t="s">
-        <v>110</v>
+      <c r="AL15" t="s">
+        <v>52</v>
       </c>
       <c r="AM15" t="s">
         <v>109</v>
       </c>
-      <c r="AN15" t="s">
-        <v>110</v>
+      <c r="AP15" t="s">
+        <v>52</v>
       </c>
       <c r="AQ15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS15" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>110</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:48" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:62" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -2877,20 +3072,11 @@
       <c r="V16" t="s">
         <v>110</v>
       </c>
-      <c r="W16" t="s">
-        <v>110</v>
-      </c>
-      <c r="X16" t="s">
-        <v>109</v>
-      </c>
       <c r="Y16" t="s">
         <v>110</v>
       </c>
-      <c r="Z16" t="s">
-        <v>110</v>
-      </c>
       <c r="AA16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AB16" t="s">
         <v>110</v>
@@ -2902,12 +3088,12 @@
         <v>110</v>
       </c>
       <c r="AE16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF16" t="s">
-        <v>109</v>
-      </c>
-      <c r="AG16" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG16" t="s">
         <v>110</v>
       </c>
       <c r="AH16" t="s">
@@ -2916,29 +3102,39 @@
       <c r="AI16" t="s">
         <v>109</v>
       </c>
-      <c r="AJ16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>110</v>
+      <c r="AJ16" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK16" s="3"/>
+      <c r="AL16" t="s">
+        <v>109</v>
       </c>
       <c r="AM16" t="s">
-        <v>110</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>109</v>
+        <v>109</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>52</v>
       </c>
       <c r="AQ16" t="s">
-        <v>109</v>
-      </c>
-      <c r="AR16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS16" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>110</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>109</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -2999,23 +3195,14 @@
       <c r="V17" t="s">
         <v>110</v>
       </c>
-      <c r="W17" t="s">
-        <v>109</v>
-      </c>
-      <c r="X17" t="s">
-        <v>110</v>
-      </c>
       <c r="Y17" t="s">
         <v>109</v>
       </c>
-      <c r="Z17" t="s">
-        <v>109</v>
-      </c>
       <c r="AA17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AB17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AC17" t="s">
         <v>109</v>
@@ -3024,43 +3211,52 @@
         <v>109</v>
       </c>
       <c r="AE17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF17" t="s">
         <v>109</v>
       </c>
       <c r="AG17" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="AH17" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="AI17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AJ17" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>110</v>
+        <v>52</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>52</v>
       </c>
       <c r="AM17" t="s">
         <v>110</v>
       </c>
-      <c r="AN17" t="s">
+      <c r="AP17" t="s">
         <v>109</v>
       </c>
       <c r="AQ17" t="s">
-        <v>109</v>
-      </c>
-      <c r="AR17" t="s">
-        <v>109</v>
-      </c>
-      <c r="AS17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>109</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB17" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>151</v>
       </c>
@@ -3121,46 +3317,34 @@
       <c r="U18" t="s">
         <v>110</v>
       </c>
-      <c r="W18" t="s">
-        <v>109</v>
-      </c>
-      <c r="X18" t="s">
-        <v>110</v>
-      </c>
       <c r="Y18" t="s">
         <v>109</v>
       </c>
-      <c r="Z18" t="s">
-        <v>52</v>
-      </c>
       <c r="AA18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AB18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AC18" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE18" t="s">
         <v>110</v>
       </c>
       <c r="AF18" t="s">
-        <v>109</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="AI18" t="s">
         <v>109</v>
       </c>
       <c r="AJ18" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO18" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM18" t="s">
         <v>109</v>
       </c>
       <c r="AP18" t="s">
@@ -3169,17 +3353,29 @@
       <c r="AQ18" t="s">
         <v>52</v>
       </c>
-      <c r="AT18" t="s">
-        <v>109</v>
-      </c>
-      <c r="AU18" t="s">
-        <v>52</v>
-      </c>
-      <c r="AV18" t="s">
+      <c r="AR18" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>109</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE18" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>151</v>
       </c>
@@ -3237,18 +3433,9 @@
       <c r="U19" t="s">
         <v>52</v>
       </c>
-      <c r="W19" t="s">
-        <v>52</v>
-      </c>
-      <c r="X19" t="s">
-        <v>52</v>
-      </c>
       <c r="Y19" t="s">
         <v>52</v>
       </c>
-      <c r="Z19" t="s">
-        <v>52</v>
-      </c>
       <c r="AA19" t="s">
         <v>52</v>
       </c>
@@ -3258,44 +3445,53 @@
       <c r="AC19" t="s">
         <v>52</v>
       </c>
+      <c r="AD19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>52</v>
+      </c>
       <c r="AF19" t="s">
         <v>52</v>
       </c>
-      <c r="AG19" t="s">
-        <v>52</v>
-      </c>
       <c r="AI19" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="AJ19" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>52</v>
+        <v>52</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>110</v>
       </c>
       <c r="AP19" t="s">
         <v>109</v>
       </c>
       <c r="AQ19" t="s">
-        <v>110</v>
-      </c>
-      <c r="AT19" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU19" t="s">
-        <v>52</v>
-      </c>
-      <c r="AV19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>110</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>151</v>
       </c>
@@ -3353,18 +3549,9 @@
       <c r="U20" t="s">
         <v>52</v>
       </c>
-      <c r="W20" t="s">
-        <v>52</v>
-      </c>
-      <c r="X20" t="s">
-        <v>52</v>
-      </c>
       <c r="Y20" t="s">
         <v>52</v>
       </c>
-      <c r="Z20" t="s">
-        <v>52</v>
-      </c>
       <c r="AA20" t="s">
         <v>52</v>
       </c>
@@ -3374,44 +3561,53 @@
       <c r="AC20" t="s">
         <v>52</v>
       </c>
+      <c r="AD20" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>52</v>
+      </c>
       <c r="AF20" t="s">
         <v>52</v>
       </c>
-      <c r="AG20" t="s">
-        <v>52</v>
-      </c>
       <c r="AI20" t="s">
         <v>52</v>
       </c>
       <c r="AJ20" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO20" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM20" t="s">
         <v>52</v>
       </c>
       <c r="AP20" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="AQ20" t="s">
         <v>52</v>
       </c>
-      <c r="AT20" t="s">
-        <v>109</v>
-      </c>
-      <c r="AU20" t="s">
-        <v>52</v>
-      </c>
-      <c r="AV20" t="s">
+      <c r="AR20" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>52</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>109</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE20" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>151</v>
       </c>
@@ -3469,18 +3665,9 @@
       <c r="U21" t="s">
         <v>52</v>
       </c>
-      <c r="W21" t="s">
-        <v>52</v>
-      </c>
-      <c r="X21" t="s">
-        <v>52</v>
-      </c>
       <c r="Y21" t="s">
         <v>52</v>
       </c>
-      <c r="Z21" t="s">
-        <v>52</v>
-      </c>
       <c r="AA21" t="s">
         <v>52</v>
       </c>
@@ -3490,26 +3677,23 @@
       <c r="AC21" t="s">
         <v>52</v>
       </c>
+      <c r="AD21" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>52</v>
+      </c>
       <c r="AF21" t="s">
         <v>52</v>
       </c>
-      <c r="AG21" t="s">
-        <v>52</v>
-      </c>
       <c r="AI21" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="AJ21" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO21" t="s">
-        <v>109</v>
+        <v>52</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>110</v>
       </c>
       <c r="AP21" t="s">
         <v>109</v>
@@ -3517,17 +3701,29 @@
       <c r="AQ21" t="s">
         <v>52</v>
       </c>
-      <c r="AT21" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU21" t="s">
-        <v>52</v>
-      </c>
-      <c r="AV21" t="s">
+      <c r="AR21" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE21" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>151</v>
       </c>
@@ -3585,65 +3781,65 @@
       <c r="U22" t="s">
         <v>110</v>
       </c>
-      <c r="W22" t="s">
-        <v>109</v>
-      </c>
-      <c r="X22" t="s">
-        <v>110</v>
-      </c>
       <c r="Y22" t="s">
         <v>109</v>
       </c>
-      <c r="Z22" t="s">
-        <v>52</v>
-      </c>
       <c r="AA22" t="s">
         <v>110</v>
       </c>
       <c r="AB22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AC22" t="s">
-        <v>109</v>
+        <v>52</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>110</v>
       </c>
       <c r="AF22" t="s">
         <v>109</v>
       </c>
-      <c r="AG22" t="s">
-        <v>52</v>
-      </c>
       <c r="AI22" t="s">
         <v>109</v>
       </c>
       <c r="AJ22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>110</v>
-      </c>
-      <c r="AL22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO22" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM22" t="s">
         <v>109</v>
       </c>
       <c r="AP22" t="s">
         <v>109</v>
       </c>
       <c r="AQ22" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AU22" t="s">
-        <v>52</v>
-      </c>
-      <c r="AV22" t="s">
+        <v>110</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>109</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE22" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>151</v>
       </c>
@@ -3701,65 +3897,65 @@
       <c r="U23" t="s">
         <v>52</v>
       </c>
-      <c r="W23" t="s">
-        <v>52</v>
-      </c>
-      <c r="X23" t="s">
-        <v>52</v>
-      </c>
       <c r="Y23" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z23" t="s">
         <v>52</v>
       </c>
       <c r="AA23" t="s">
         <v>52</v>
       </c>
       <c r="AB23" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="AC23" t="s">
         <v>52</v>
       </c>
+      <c r="AD23" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>52</v>
+      </c>
       <c r="AF23" t="s">
         <v>52</v>
       </c>
-      <c r="AG23" t="s">
-        <v>52</v>
-      </c>
       <c r="AI23" t="s">
         <v>52</v>
       </c>
       <c r="AJ23" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL23" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO23" t="s">
-        <v>109</v>
+        <v>52</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>52</v>
       </c>
       <c r="AP23" t="s">
         <v>109</v>
       </c>
       <c r="AQ23" t="s">
-        <v>110</v>
-      </c>
-      <c r="AT23" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU23" t="s">
-        <v>52</v>
-      </c>
-      <c r="AV23" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY23" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>110</v>
+      </c>
+      <c r="BC23" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE23" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>151</v>
       </c>
@@ -3817,65 +4013,65 @@
       <c r="U24" t="s">
         <v>109</v>
       </c>
-      <c r="W24" t="s">
-        <v>52</v>
-      </c>
-      <c r="X24" t="s">
-        <v>109</v>
-      </c>
       <c r="Y24" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z24" t="s">
         <v>52</v>
       </c>
       <c r="AA24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AB24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AC24" t="s">
-        <v>110</v>
+        <v>52</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>109</v>
       </c>
       <c r="AF24" t="s">
         <v>110</v>
       </c>
-      <c r="AG24" t="s">
-        <v>52</v>
-      </c>
       <c r="AI24" t="s">
         <v>110</v>
       </c>
       <c r="AJ24" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK24" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL24" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO24" t="s">
-        <v>109</v>
+        <v>52</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>110</v>
       </c>
       <c r="AP24" t="s">
         <v>109</v>
       </c>
       <c r="AQ24" t="s">
-        <v>110</v>
-      </c>
-      <c r="AT24" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU24" t="s">
-        <v>52</v>
-      </c>
-      <c r="AV24" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX24" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY24" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ24" t="s">
+        <v>110</v>
+      </c>
+      <c r="BC24" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD24" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE24" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>151</v>
       </c>
@@ -3933,65 +4129,65 @@
       <c r="U25" t="s">
         <v>110</v>
       </c>
-      <c r="W25" t="s">
-        <v>52</v>
-      </c>
-      <c r="X25" t="s">
-        <v>109</v>
-      </c>
       <c r="Y25" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z25" t="s">
         <v>52</v>
       </c>
       <c r="AA25" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="AB25" t="s">
         <v>110</v>
       </c>
       <c r="AC25" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE25" t="s">
         <v>110</v>
       </c>
       <c r="AF25" t="s">
         <v>110</v>
       </c>
-      <c r="AG25" t="s">
-        <v>52</v>
-      </c>
       <c r="AI25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AJ25" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK25" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL25" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO25" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM25" t="s">
         <v>109</v>
       </c>
       <c r="AP25" t="s">
         <v>109</v>
       </c>
       <c r="AQ25" t="s">
-        <v>110</v>
-      </c>
-      <c r="AT25" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU25" t="s">
-        <v>52</v>
-      </c>
-      <c r="AV25" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX25" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY25" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>110</v>
+      </c>
+      <c r="BC25" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD25" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE25" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>151</v>
       </c>
@@ -4049,65 +4245,65 @@
       <c r="U26" t="s">
         <v>110</v>
       </c>
-      <c r="W26" t="s">
-        <v>109</v>
-      </c>
-      <c r="X26" t="s">
-        <v>110</v>
-      </c>
       <c r="Y26" t="s">
         <v>109</v>
       </c>
-      <c r="Z26" t="s">
-        <v>52</v>
-      </c>
       <c r="AA26" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AB26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AC26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE26" t="s">
         <v>110</v>
       </c>
       <c r="AF26" t="s">
         <v>110</v>
       </c>
-      <c r="AG26" t="s">
-        <v>52</v>
-      </c>
       <c r="AI26" t="s">
         <v>110</v>
       </c>
       <c r="AJ26" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK26" t="s">
-        <v>110</v>
-      </c>
-      <c r="AL26" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO26" t="s">
-        <v>109</v>
+        <v>52</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>110</v>
       </c>
       <c r="AP26" t="s">
         <v>109</v>
       </c>
       <c r="AQ26" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT26" t="s">
-        <v>109</v>
-      </c>
-      <c r="AU26" t="s">
-        <v>52</v>
-      </c>
-      <c r="AV26" t="s">
+        <v>110</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX26" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY26" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ26" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC26" t="s">
+        <v>109</v>
+      </c>
+      <c r="BD26" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE26" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>151</v>
       </c>
@@ -4165,65 +4361,65 @@
       <c r="U27" t="s">
         <v>110</v>
       </c>
-      <c r="W27" t="s">
-        <v>109</v>
-      </c>
-      <c r="X27" t="s">
-        <v>109</v>
-      </c>
       <c r="Y27" t="s">
         <v>109</v>
       </c>
-      <c r="Z27" t="s">
-        <v>52</v>
-      </c>
       <c r="AA27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AB27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AC27" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE27" t="s">
         <v>110</v>
       </c>
       <c r="AF27" t="s">
         <v>110</v>
       </c>
-      <c r="AG27" t="s">
-        <v>52</v>
-      </c>
       <c r="AI27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AJ27" t="s">
-        <v>110</v>
-      </c>
-      <c r="AK27" t="s">
-        <v>110</v>
-      </c>
-      <c r="AL27" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO27" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM27" t="s">
         <v>109</v>
       </c>
       <c r="AP27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AQ27" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT27" t="s">
-        <v>109</v>
-      </c>
-      <c r="AU27" t="s">
-        <v>52</v>
-      </c>
-      <c r="AV27" t="s">
+        <v>110</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX27" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY27" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ27" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC27" t="s">
+        <v>109</v>
+      </c>
+      <c r="BD27" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE27" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>151</v>
       </c>
@@ -4281,65 +4477,65 @@
       <c r="U28" t="s">
         <v>110</v>
       </c>
-      <c r="W28" t="s">
-        <v>109</v>
-      </c>
-      <c r="X28" t="s">
-        <v>109</v>
-      </c>
       <c r="Y28" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="AA28" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="AB28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AC28" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE28" t="s">
         <v>109</v>
       </c>
       <c r="AF28" t="s">
         <v>109</v>
       </c>
-      <c r="AG28" t="s">
-        <v>52</v>
-      </c>
       <c r="AI28" t="s">
         <v>109</v>
       </c>
       <c r="AJ28" t="s">
-        <v>110</v>
-      </c>
-      <c r="AK28" t="s">
-        <v>110</v>
-      </c>
-      <c r="AL28" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO28" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM28" t="s">
         <v>109</v>
       </c>
       <c r="AP28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AQ28" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT28" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU28" t="s">
-        <v>52</v>
-      </c>
-      <c r="AV28" t="s">
+        <v>110</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX28" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY28" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ28" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC28" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD28" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE28" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>151</v>
       </c>
@@ -4400,65 +4596,65 @@
       <c r="U29" t="s">
         <v>110</v>
       </c>
-      <c r="W29" t="s">
-        <v>109</v>
-      </c>
-      <c r="X29" t="s">
-        <v>109</v>
-      </c>
       <c r="Y29" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z29" t="s">
         <v>109</v>
       </c>
       <c r="AA29" t="s">
         <v>109</v>
       </c>
       <c r="AB29" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AC29" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>109</v>
       </c>
       <c r="AF29" t="s">
         <v>110</v>
       </c>
-      <c r="AG29" t="s">
-        <v>109</v>
-      </c>
       <c r="AI29" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AJ29" t="s">
         <v>109</v>
       </c>
-      <c r="AK29" t="s">
-        <v>110</v>
-      </c>
-      <c r="AL29" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO29" t="s">
+      <c r="AM29" t="s">
         <v>109</v>
       </c>
       <c r="AP29" t="s">
         <v>109</v>
       </c>
       <c r="AQ29" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT29" t="s">
-        <v>109</v>
-      </c>
-      <c r="AU29" t="s">
-        <v>109</v>
-      </c>
-      <c r="AV29" t="s">
+        <v>110</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX29" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY29" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ29" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC29" t="s">
+        <v>109</v>
+      </c>
+      <c r="BD29" t="s">
+        <v>109</v>
+      </c>
+      <c r="BE29" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>151</v>
       </c>
@@ -4516,46 +4712,34 @@
       <c r="U30" t="s">
         <v>110</v>
       </c>
-      <c r="W30" t="s">
-        <v>109</v>
-      </c>
-      <c r="X30" t="s">
-        <v>109</v>
-      </c>
       <c r="Y30" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AA30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AB30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AC30" t="s">
         <v>110</v>
       </c>
+      <c r="AD30" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>109</v>
+      </c>
       <c r="AF30" t="s">
         <v>110</v>
       </c>
-      <c r="AG30" t="s">
-        <v>110</v>
-      </c>
       <c r="AI30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AJ30" t="s">
         <v>110</v>
       </c>
-      <c r="AK30" t="s">
-        <v>110</v>
-      </c>
-      <c r="AL30" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO30" t="s">
+      <c r="AM30" t="s">
         <v>109</v>
       </c>
       <c r="AP30" t="s">
@@ -4564,17 +4748,29 @@
       <c r="AQ30" t="s">
         <v>110</v>
       </c>
-      <c r="AT30" t="s">
-        <v>109</v>
-      </c>
-      <c r="AU30" t="s">
-        <v>110</v>
-      </c>
-      <c r="AV30" t="s">
+      <c r="AR30" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX30" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY30" t="s">
+        <v>110</v>
+      </c>
+      <c r="AZ30" t="s">
+        <v>110</v>
+      </c>
+      <c r="BC30" t="s">
+        <v>109</v>
+      </c>
+      <c r="BD30" t="s">
+        <v>110</v>
+      </c>
+      <c r="BE30" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>151</v>
       </c>
@@ -4632,65 +4828,65 @@
       <c r="U31" t="s">
         <v>109</v>
       </c>
-      <c r="W31" t="s">
-        <v>109</v>
-      </c>
-      <c r="X31" t="s">
-        <v>110</v>
-      </c>
       <c r="Y31" t="s">
         <v>109</v>
       </c>
-      <c r="Z31" t="s">
-        <v>109</v>
-      </c>
       <c r="AA31" t="s">
         <v>110</v>
       </c>
       <c r="AB31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AC31" t="s">
         <v>109</v>
       </c>
+      <c r="AD31" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>110</v>
+      </c>
       <c r="AF31" t="s">
         <v>109</v>
       </c>
-      <c r="AG31" t="s">
-        <v>110</v>
-      </c>
       <c r="AI31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AJ31" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK31" t="s">
-        <v>110</v>
-      </c>
-      <c r="AL31" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO31" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM31" t="s">
         <v>110</v>
       </c>
       <c r="AP31" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="AQ31" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT31" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU31" t="s">
-        <v>109</v>
-      </c>
-      <c r="AV31" t="s">
+        <v>110</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX31" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY31" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ31" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC31" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD31" t="s">
+        <v>109</v>
+      </c>
+      <c r="BE31" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>151</v>
       </c>
@@ -4748,65 +4944,65 @@
       <c r="U32" t="s">
         <v>110</v>
       </c>
-      <c r="W32" t="s">
-        <v>109</v>
-      </c>
-      <c r="X32" t="s">
-        <v>109</v>
-      </c>
       <c r="Y32" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z32" t="s">
         <v>109</v>
       </c>
       <c r="AA32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AB32" t="s">
         <v>110</v>
       </c>
       <c r="AC32" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE32" t="s">
         <v>110</v>
       </c>
       <c r="AF32" t="s">
-        <v>109</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="AI32" t="s">
         <v>109</v>
       </c>
       <c r="AJ32" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK32" t="s">
-        <v>110</v>
-      </c>
-      <c r="AL32" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO32" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM32" t="s">
         <v>109</v>
       </c>
       <c r="AP32" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="AQ32" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT32" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU32" t="s">
-        <v>109</v>
-      </c>
-      <c r="AV32" t="s">
+        <v>110</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>109</v>
+      </c>
+      <c r="BE32" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>151</v>
       </c>
@@ -4864,18 +5060,9 @@
       <c r="U33" t="s">
         <v>109</v>
       </c>
-      <c r="W33" t="s">
-        <v>109</v>
-      </c>
-      <c r="X33" t="s">
-        <v>109</v>
-      </c>
       <c r="Y33" t="s">
         <v>109</v>
       </c>
-      <c r="Z33" t="s">
-        <v>109</v>
-      </c>
       <c r="AA33" t="s">
         <v>109</v>
       </c>
@@ -4883,46 +5070,55 @@
         <v>109</v>
       </c>
       <c r="AC33" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>109</v>
       </c>
       <c r="AF33" t="s">
         <v>110</v>
       </c>
-      <c r="AG33" t="s">
-        <v>109</v>
-      </c>
       <c r="AI33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AJ33" t="s">
         <v>109</v>
       </c>
-      <c r="AK33" t="s">
-        <v>110</v>
-      </c>
-      <c r="AL33" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO33" t="s">
+      <c r="AM33" t="s">
         <v>109</v>
       </c>
       <c r="AP33" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="AQ33" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT33" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU33" t="s">
-        <v>109</v>
-      </c>
-      <c r="AV33" t="s">
+        <v>110</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX33" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY33" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ33" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC33" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD33" t="s">
+        <v>109</v>
+      </c>
+      <c r="BE33" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>151</v>
       </c>
@@ -4980,65 +5176,65 @@
       <c r="U34" t="s">
         <v>109</v>
       </c>
-      <c r="W34" t="s">
-        <v>109</v>
-      </c>
-      <c r="X34" t="s">
-        <v>109</v>
-      </c>
       <c r="Y34" t="s">
         <v>109</v>
       </c>
-      <c r="Z34" t="s">
-        <v>109</v>
-      </c>
       <c r="AA34" t="s">
         <v>109</v>
       </c>
       <c r="AB34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AC34" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE34" t="s">
         <v>110</v>
       </c>
       <c r="AF34" t="s">
         <v>110</v>
       </c>
-      <c r="AG34" t="s">
-        <v>52</v>
-      </c>
       <c r="AI34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AJ34" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK34" t="s">
-        <v>109</v>
-      </c>
-      <c r="AL34" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO34" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM34" t="s">
         <v>109</v>
       </c>
       <c r="AP34" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="AQ34" t="s">
-        <v>110</v>
-      </c>
-      <c r="AT34" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU34" t="s">
-        <v>109</v>
-      </c>
-      <c r="AV34" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX34" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY34" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ34" t="s">
+        <v>110</v>
+      </c>
+      <c r="BC34" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD34" t="s">
+        <v>109</v>
+      </c>
+      <c r="BE34" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>151</v>
       </c>
@@ -5099,65 +5295,65 @@
       <c r="U35" t="s">
         <v>109</v>
       </c>
-      <c r="W35" t="s">
-        <v>109</v>
-      </c>
-      <c r="X35" t="s">
-        <v>109</v>
-      </c>
       <c r="Y35" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z35" t="s">
         <v>109</v>
       </c>
       <c r="AA35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AB35" t="s">
         <v>110</v>
       </c>
       <c r="AC35" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE35" t="s">
         <v>110</v>
       </c>
       <c r="AF35" t="s">
-        <v>109</v>
-      </c>
-      <c r="AG35" t="s">
         <v>110</v>
       </c>
       <c r="AI35" t="s">
         <v>109</v>
       </c>
       <c r="AJ35" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK35" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL35" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO35" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM35" t="s">
         <v>109</v>
       </c>
       <c r="AP35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AQ35" t="s">
         <v>52</v>
       </c>
-      <c r="AT35" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU35" t="s">
-        <v>109</v>
-      </c>
-      <c r="AV35" t="s">
+      <c r="AR35" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX35" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY35" t="s">
+        <v>110</v>
+      </c>
+      <c r="AZ35" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC35" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD35" t="s">
+        <v>109</v>
+      </c>
+      <c r="BE35" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>151</v>
       </c>
@@ -5218,62 +5414,187 @@
       <c r="U36" t="s">
         <v>109</v>
       </c>
-      <c r="W36" t="s">
-        <v>109</v>
-      </c>
-      <c r="X36" t="s">
-        <v>109</v>
-      </c>
       <c r="Y36" t="s">
         <v>109</v>
       </c>
-      <c r="Z36" t="s">
-        <v>52</v>
-      </c>
       <c r="AA36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AB36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AC36" t="s">
-        <v>109</v>
+        <v>52</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>110</v>
       </c>
       <c r="AF36" t="s">
         <v>109</v>
       </c>
-      <c r="AG36" t="s">
-        <v>52</v>
-      </c>
       <c r="AI36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AJ36" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK36" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL36" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO36" t="s">
-        <v>109</v>
+        <v>52</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>110</v>
       </c>
       <c r="AP36" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="AQ36" t="s">
         <v>52</v>
       </c>
-      <c r="AT36" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU36" t="s">
-        <v>109</v>
-      </c>
-      <c r="AV36" t="s">
-        <v>109</v>
+      <c r="AR36" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX36" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY36" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ36" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC36" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD36" t="s">
+        <v>109</v>
+      </c>
+      <c r="BE36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>181</v>
+      </c>
+      <c r="B37" t="s">
+        <v>182</v>
+      </c>
+      <c r="C37" t="s">
+        <v>183</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>48</v>
+      </c>
+      <c r="J37" t="s">
+        <v>215</v>
+      </c>
+      <c r="K37" t="s">
+        <v>52</v>
+      </c>
+      <c r="L37" t="s">
+        <v>216</v>
+      </c>
+      <c r="M37" t="s">
+        <v>185</v>
+      </c>
+      <c r="N37" t="s">
+        <v>184</v>
+      </c>
+      <c r="O37" t="s">
+        <v>131</v>
+      </c>
+      <c r="P37" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>52</v>
+      </c>
+      <c r="S37" t="s">
+        <v>166</v>
+      </c>
+      <c r="U37" t="s">
+        <v>166</v>
+      </c>
+      <c r="V37" t="s">
+        <v>109</v>
+      </c>
+      <c r="W37" t="s">
+        <v>166</v>
+      </c>
+      <c r="X37" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>166</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>166</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU37" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA37" t="s">
+        <v>166</v>
+      </c>
+      <c r="BE37" t="s">
+        <v>109</v>
+      </c>
+      <c r="BF37" t="s">
+        <v>185</v>
+      </c>
+      <c r="BG37" t="s">
+        <v>185</v>
+      </c>
+      <c r="BH37" t="s">
+        <v>192</v>
+      </c>
+      <c r="BI37" t="s">
+        <v>110</v>
+      </c>
+      <c r="BJ37" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/TGFB2/input/TGFB2_LDS4_individuals.xlsx
+++ b/notebooks/TGFB2/input/TGFB2_LDS4_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/TGFB2/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FF931D-0BDA-BA41-A541-FBEBFFF050E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DCFB8D-208F-4F4E-B9C4-A1C3905AC280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="1980" windowWidth="36320" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="1960" windowWidth="36340" windowHeight="8320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="269">
   <si>
     <t>PMID</t>
   </si>
@@ -684,13 +684,169 @@
   </si>
   <si>
     <t>GRCh38:1:218435969:G:A</t>
+  </si>
+  <si>
+    <t>PMID:31569402</t>
+  </si>
+  <si>
+    <t>Genotypic Categorization of Loeys-Dietz Syndrome Based on 24 Novel Families and Literature Data</t>
+  </si>
+  <si>
+    <t>Family 24 Patient I</t>
+  </si>
+  <si>
+    <t>P48Y</t>
+  </si>
+  <si>
+    <t>NM_001135599.3:c.480del=NP_001129071.1:p.(Phe160LeufsTer14)=NM_003238.6:c.396del</t>
+  </si>
+  <si>
+    <t>c.396del</t>
+  </si>
+  <si>
+    <t>Dolichocephaly</t>
+  </si>
+  <si>
+    <t>HP:0000268</t>
+  </si>
+  <si>
+    <t>Epicanthus</t>
+  </si>
+  <si>
+    <t>HP:0000286</t>
+  </si>
+  <si>
+    <t>Frontal bossing</t>
+  </si>
+  <si>
+    <t>HP:0002007</t>
+  </si>
+  <si>
+    <t>Prominent nose</t>
+  </si>
+  <si>
+    <t>HP:0000448</t>
+  </si>
+  <si>
+    <t>Low-set ears</t>
+  </si>
+  <si>
+    <t>HP:0000369</t>
+  </si>
+  <si>
+    <t>Micrognathia</t>
+  </si>
+  <si>
+    <t>HP:0000347</t>
+  </si>
+  <si>
+    <t>Hyperextensible skin</t>
+  </si>
+  <si>
+    <t>HP:0000974</t>
+  </si>
+  <si>
+    <t>Atrophic scars</t>
+  </si>
+  <si>
+    <t>HP:0001075</t>
+  </si>
+  <si>
+    <t>Dermal translucency</t>
+  </si>
+  <si>
+    <t>HP:0010648</t>
+  </si>
+  <si>
+    <t>Umbilical hernia</t>
+  </si>
+  <si>
+    <t>HP:0001537</t>
+  </si>
+  <si>
+    <t>Pectus excavatum</t>
+  </si>
+  <si>
+    <t>HP:0000767</t>
+  </si>
+  <si>
+    <t>Disproportionate tall stature</t>
+  </si>
+  <si>
+    <t>HP:0001519</t>
+  </si>
+  <si>
+    <t>Genu valgum</t>
+  </si>
+  <si>
+    <t>HP:0002857</t>
+  </si>
+  <si>
+    <t>Osteopenia</t>
+  </si>
+  <si>
+    <t>HP:0000938</t>
+  </si>
+  <si>
+    <t>Recurrent joint dislocation</t>
+  </si>
+  <si>
+    <t>HP:0031869</t>
+  </si>
+  <si>
+    <t>Osteoarthritis</t>
+  </si>
+  <si>
+    <t>HP:0002758</t>
+  </si>
+  <si>
+    <t>Cervical spine instability</t>
+  </si>
+  <si>
+    <t>HP:0010646</t>
+  </si>
+  <si>
+    <t>Mitral regurgitation</t>
+  </si>
+  <si>
+    <t>HP:0001653</t>
+  </si>
+  <si>
+    <t>Patent ductus arteriosus</t>
+  </si>
+  <si>
+    <t>HP:0001643</t>
+  </si>
+  <si>
+    <t>Myopia</t>
+  </si>
+  <si>
+    <t>HP:0000545</t>
+  </si>
+  <si>
+    <t>Keratoconus</t>
+  </si>
+  <si>
+    <t>HP:0000563</t>
+  </si>
+  <si>
+    <t>Strabismus</t>
+  </si>
+  <si>
+    <t>HP:0000486</t>
+  </si>
+  <si>
+    <t>Food allergy</t>
+  </si>
+  <si>
+    <t>HP:0500093</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -712,6 +868,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -749,7 +911,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -758,6 +920,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1065,18 +1231,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BJ37"/>
+  <dimension ref="A1:CG38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="AI37" sqref="AI37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BP8" sqref="BP8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="16" width="8.83203125" customWidth="1"/>
+    <col min="4" max="8" width="8.83203125" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="16" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:85" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1195,76 +1363,145 @@
         <v>32</v>
       </c>
       <c r="AN1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AO1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AS1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BD1" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="BI1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BK1" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BL1" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BM1" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BN1" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BO1" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="BP1" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BR1" s="2" t="s">
         <v>201</v>
       </c>
+      <c r="BS1" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="BT1" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="BU1" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="BV1" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="BW1" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="BX1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="BY1" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="BZ1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="CA1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="CB1" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="CC1" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="CD1" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="CE1" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="CF1" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="CG1" s="2" t="s">
+        <v>267</v>
+      </c>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1383,76 +1620,145 @@
         <v>68</v>
       </c>
       <c r="AN2" t="s">
+        <v>242</v>
+      </c>
+      <c r="AO2" t="s">
         <v>196</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>198</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>69</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
+        <v>258</v>
+      </c>
+      <c r="AS2" t="s">
         <v>70</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AT2" t="s">
         <v>71</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AU2" t="s">
         <v>214</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AV2" t="s">
+        <v>260</v>
+      </c>
+      <c r="AW2" t="s">
         <v>210</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AX2" t="s">
         <v>212</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AY2" t="s">
         <v>72</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AZ2" t="s">
         <v>73</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BA2" t="s">
         <v>74</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BB2" t="s">
         <v>75</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BC2" t="s">
         <v>76</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BD2" t="s">
+        <v>246</v>
+      </c>
+      <c r="BE2" t="s">
         <v>114</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BF2" t="s">
+        <v>236</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>238</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>240</v>
+      </c>
+      <c r="BI2" t="s">
         <v>116</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BJ2" t="s">
         <v>174</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BK2" t="s">
         <v>176</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BL2" t="s">
         <v>178</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BM2" t="s">
         <v>187</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BN2" t="s">
         <v>189</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BO2" t="s">
+        <v>252</v>
+      </c>
+      <c r="BP2" t="s">
         <v>191</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BQ2" t="s">
         <v>200</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BR2" t="s">
         <v>202</v>
       </c>
+      <c r="BS2" t="s">
+        <v>250</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>244</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>248</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>234</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>232</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>230</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>228</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>226</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>224</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>254</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>256</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>262</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>264</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>266</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>268</v>
+      </c>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -1549,29 +1855,29 @@
       <c r="AM3" t="s">
         <v>110</v>
       </c>
-      <c r="AP3" t="s">
-        <v>110</v>
-      </c>
       <c r="AQ3" t="s">
         <v>110</v>
       </c>
-      <c r="AV3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>109</v>
+      <c r="AS3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>110</v>
       </c>
       <c r="AZ3" t="s">
-        <v>110</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>109</v>
-      </c>
-      <c r="BB3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BI3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -1668,29 +1974,29 @@
       <c r="AM4" t="s">
         <v>109</v>
       </c>
-      <c r="AP4" t="s">
-        <v>109</v>
-      </c>
       <c r="AQ4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AW4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY4" t="s">
         <v>109</v>
       </c>
       <c r="AZ4" t="s">
         <v>109</v>
       </c>
-      <c r="BA4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BB4" t="s">
+      <c r="BC4" t="s">
+        <v>109</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>109</v>
+      </c>
+      <c r="BI4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -1790,29 +2096,29 @@
       <c r="AM5" t="s">
         <v>110</v>
       </c>
-      <c r="AP5" t="s">
-        <v>109</v>
-      </c>
       <c r="AQ5" t="s">
-        <v>110</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AW5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY5" t="s">
         <v>109</v>
       </c>
       <c r="AZ5" t="s">
         <v>109</v>
       </c>
-      <c r="BA5" t="s">
-        <v>109</v>
-      </c>
-      <c r="BB5" t="s">
+      <c r="BC5" t="s">
+        <v>109</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>109</v>
+      </c>
+      <c r="BI5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -1912,29 +2218,29 @@
       <c r="AM6" t="s">
         <v>110</v>
       </c>
-      <c r="AP6" t="s">
-        <v>52</v>
-      </c>
       <c r="AQ6" t="s">
-        <v>109</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>109</v>
-      </c>
-      <c r="AW6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY6" t="s">
         <v>109</v>
       </c>
       <c r="AZ6" t="s">
-        <v>110</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>109</v>
-      </c>
-      <c r="BB6" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>109</v>
+      </c>
+      <c r="BI6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -2031,29 +2337,29 @@
       <c r="AM7" t="s">
         <v>110</v>
       </c>
-      <c r="AP7" t="s">
-        <v>110</v>
-      </c>
       <c r="AQ7" t="s">
         <v>110</v>
       </c>
-      <c r="AV7" t="s">
-        <v>109</v>
-      </c>
-      <c r="AW7" t="s">
+      <c r="AS7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY7" t="s">
         <v>109</v>
       </c>
       <c r="AZ7" t="s">
-        <v>110</v>
-      </c>
-      <c r="BA7" t="s">
-        <v>109</v>
-      </c>
-      <c r="BB7" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>110</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>109</v>
+      </c>
+      <c r="BI7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -2150,29 +2456,29 @@
       <c r="AM8" t="s">
         <v>110</v>
       </c>
-      <c r="AP8" t="s">
-        <v>110</v>
-      </c>
       <c r="AQ8" t="s">
         <v>110</v>
       </c>
-      <c r="AV8" t="s">
-        <v>109</v>
-      </c>
-      <c r="AW8" t="s">
+      <c r="AS8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY8" t="s">
         <v>109</v>
       </c>
       <c r="AZ8" t="s">
-        <v>110</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>109</v>
-      </c>
-      <c r="BB8" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>110</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>109</v>
+      </c>
+      <c r="BI8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -2269,29 +2575,29 @@
       <c r="AM9" t="s">
         <v>109</v>
       </c>
-      <c r="AP9" t="s">
-        <v>52</v>
-      </c>
       <c r="AQ9" t="s">
-        <v>110</v>
-      </c>
-      <c r="AV9" t="s">
-        <v>109</v>
-      </c>
-      <c r="AW9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY9" t="s">
         <v>109</v>
       </c>
       <c r="AZ9" t="s">
         <v>109</v>
       </c>
-      <c r="BA9" t="s">
-        <v>109</v>
-      </c>
-      <c r="BB9" t="s">
+      <c r="BC9" t="s">
+        <v>109</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>109</v>
+      </c>
+      <c r="BI9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -2391,29 +2697,29 @@
       <c r="AM10" t="s">
         <v>110</v>
       </c>
-      <c r="AP10" t="s">
-        <v>52</v>
-      </c>
       <c r="AQ10" t="s">
-        <v>110</v>
-      </c>
-      <c r="AV10" t="s">
-        <v>110</v>
-      </c>
-      <c r="AW10" t="s">
-        <v>109</v>
+        <v>52</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>110</v>
       </c>
       <c r="AZ10" t="s">
         <v>109</v>
       </c>
-      <c r="BA10" t="s">
-        <v>109</v>
-      </c>
-      <c r="BB10" t="s">
+      <c r="BC10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BI10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -2510,29 +2816,29 @@
       <c r="AM11" t="s">
         <v>110</v>
       </c>
-      <c r="AP11" t="s">
-        <v>110</v>
-      </c>
       <c r="AQ11" t="s">
         <v>110</v>
       </c>
-      <c r="AV11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AW11" t="s">
+      <c r="AS11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY11" t="s">
         <v>109</v>
       </c>
       <c r="AZ11" t="s">
         <v>109</v>
       </c>
-      <c r="BA11" t="s">
-        <v>110</v>
-      </c>
-      <c r="BB11" t="s">
+      <c r="BC11" t="s">
+        <v>109</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>110</v>
+      </c>
+      <c r="BI11" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -2629,29 +2935,29 @@
       <c r="AM12" t="s">
         <v>110</v>
       </c>
-      <c r="AP12" t="s">
-        <v>52</v>
-      </c>
       <c r="AQ12" t="s">
-        <v>110</v>
-      </c>
-      <c r="AV12" t="s">
-        <v>109</v>
-      </c>
-      <c r="AW12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY12" t="s">
         <v>109</v>
       </c>
       <c r="AZ12" t="s">
-        <v>110</v>
-      </c>
-      <c r="BA12" t="s">
-        <v>110</v>
-      </c>
-      <c r="BB12" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>110</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>110</v>
+      </c>
+      <c r="BI12" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:62" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:85" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -2751,29 +3057,29 @@
       <c r="AM13" t="s">
         <v>110</v>
       </c>
-      <c r="AP13" t="s">
-        <v>52</v>
-      </c>
       <c r="AQ13" t="s">
-        <v>110</v>
-      </c>
-      <c r="AV13" t="s">
-        <v>109</v>
-      </c>
-      <c r="AW13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY13" t="s">
         <v>109</v>
       </c>
       <c r="AZ13" t="s">
         <v>109</v>
       </c>
-      <c r="BA13" t="s">
-        <v>110</v>
-      </c>
-      <c r="BB13" t="s">
+      <c r="BC13" t="s">
+        <v>109</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>110</v>
+      </c>
+      <c r="BI13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -2870,29 +3176,29 @@
       <c r="AM14" t="s">
         <v>109</v>
       </c>
-      <c r="AP14" t="s">
-        <v>52</v>
-      </c>
       <c r="AQ14" t="s">
-        <v>110</v>
-      </c>
-      <c r="AV14" t="s">
-        <v>109</v>
-      </c>
-      <c r="AW14" t="s">
-        <v>110</v>
+        <v>52</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>109</v>
       </c>
       <c r="AZ14" t="s">
-        <v>109</v>
-      </c>
-      <c r="BA14" t="s">
-        <v>109</v>
-      </c>
-      <c r="BB14" t="s">
+        <v>110</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>109</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>109</v>
+      </c>
+      <c r="BI14" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -2989,29 +3295,29 @@
       <c r="AM15" t="s">
         <v>109</v>
       </c>
-      <c r="AP15" t="s">
-        <v>52</v>
-      </c>
       <c r="AQ15" t="s">
-        <v>110</v>
-      </c>
-      <c r="AV15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AW15" t="s">
-        <v>110</v>
+        <v>52</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>109</v>
       </c>
       <c r="AZ15" t="s">
-        <v>109</v>
-      </c>
-      <c r="BA15" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB15" t="s">
+        <v>110</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>52</v>
+      </c>
+      <c r="BI15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:62" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:85" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -3112,29 +3418,29 @@
       <c r="AM16" t="s">
         <v>109</v>
       </c>
-      <c r="AP16" t="s">
-        <v>52</v>
-      </c>
       <c r="AQ16" t="s">
-        <v>110</v>
-      </c>
-      <c r="AV16" t="s">
-        <v>110</v>
-      </c>
-      <c r="AW16" t="s">
-        <v>109</v>
+        <v>52</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>110</v>
       </c>
       <c r="AZ16" t="s">
         <v>109</v>
       </c>
-      <c r="BA16" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB16" t="s">
+      <c r="BC16" t="s">
+        <v>109</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>52</v>
+      </c>
+      <c r="BI16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -3234,29 +3540,29 @@
       <c r="AM17" t="s">
         <v>110</v>
       </c>
-      <c r="AP17" t="s">
-        <v>109</v>
-      </c>
       <c r="AQ17" t="s">
-        <v>110</v>
-      </c>
-      <c r="AV17" t="s">
-        <v>110</v>
-      </c>
-      <c r="AW17" t="s">
-        <v>109</v>
+        <v>109</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>110</v>
       </c>
       <c r="AZ17" t="s">
         <v>109</v>
       </c>
-      <c r="BA17" t="s">
-        <v>109</v>
-      </c>
-      <c r="BB17" t="s">
+      <c r="BC17" t="s">
+        <v>109</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>109</v>
+      </c>
+      <c r="BI17" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>151</v>
       </c>
@@ -3347,35 +3653,35 @@
       <c r="AM18" t="s">
         <v>109</v>
       </c>
-      <c r="AP18" t="s">
-        <v>109</v>
-      </c>
       <c r="AQ18" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR18" t="s">
-        <v>52</v>
-      </c>
-      <c r="AX18" t="s">
-        <v>109</v>
-      </c>
-      <c r="AY18" t="s">
-        <v>109</v>
-      </c>
-      <c r="AZ18" t="s">
-        <v>52</v>
+        <v>109</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>52</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>109</v>
       </c>
       <c r="BC18" t="s">
-        <v>109</v>
-      </c>
-      <c r="BD18" t="s">
-        <v>52</v>
-      </c>
-      <c r="BE18" t="s">
+        <v>52</v>
+      </c>
+      <c r="BJ18" t="s">
+        <v>109</v>
+      </c>
+      <c r="BK18" t="s">
+        <v>52</v>
+      </c>
+      <c r="BL18" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>151</v>
       </c>
@@ -3463,35 +3769,35 @@
       <c r="AM19" t="s">
         <v>110</v>
       </c>
-      <c r="AP19" t="s">
-        <v>109</v>
-      </c>
       <c r="AQ19" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR19" t="s">
-        <v>52</v>
-      </c>
-      <c r="AX19" t="s">
-        <v>52</v>
-      </c>
-      <c r="AY19" t="s">
-        <v>109</v>
-      </c>
-      <c r="AZ19" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>52</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>109</v>
       </c>
       <c r="BC19" t="s">
-        <v>52</v>
-      </c>
-      <c r="BD19" t="s">
-        <v>52</v>
-      </c>
-      <c r="BE19" t="s">
+        <v>110</v>
+      </c>
+      <c r="BJ19" t="s">
+        <v>52</v>
+      </c>
+      <c r="BK19" t="s">
+        <v>52</v>
+      </c>
+      <c r="BL19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>151</v>
       </c>
@@ -3579,35 +3885,35 @@
       <c r="AM20" t="s">
         <v>52</v>
       </c>
-      <c r="AP20" t="s">
-        <v>109</v>
-      </c>
       <c r="AQ20" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR20" t="s">
-        <v>52</v>
-      </c>
-      <c r="AX20" t="s">
-        <v>52</v>
-      </c>
-      <c r="AY20" t="s">
-        <v>52</v>
-      </c>
-      <c r="AZ20" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>52</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB20" t="s">
         <v>52</v>
       </c>
       <c r="BC20" t="s">
-        <v>109</v>
-      </c>
-      <c r="BD20" t="s">
-        <v>52</v>
-      </c>
-      <c r="BE20" t="s">
+        <v>52</v>
+      </c>
+      <c r="BJ20" t="s">
+        <v>109</v>
+      </c>
+      <c r="BK20" t="s">
+        <v>52</v>
+      </c>
+      <c r="BL20" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>151</v>
       </c>
@@ -3695,35 +4001,35 @@
       <c r="AM21" t="s">
         <v>110</v>
       </c>
-      <c r="AP21" t="s">
-        <v>109</v>
-      </c>
       <c r="AQ21" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR21" t="s">
-        <v>52</v>
-      </c>
-      <c r="AX21" t="s">
-        <v>109</v>
-      </c>
-      <c r="AY21" t="s">
-        <v>109</v>
-      </c>
-      <c r="AZ21" t="s">
-        <v>52</v>
+        <v>109</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>52</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>109</v>
       </c>
       <c r="BC21" t="s">
         <v>52</v>
       </c>
-      <c r="BD21" t="s">
-        <v>52</v>
-      </c>
-      <c r="BE21" t="s">
+      <c r="BJ21" t="s">
+        <v>52</v>
+      </c>
+      <c r="BK21" t="s">
+        <v>52</v>
+      </c>
+      <c r="BL21" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>151</v>
       </c>
@@ -3811,35 +4117,35 @@
       <c r="AM22" t="s">
         <v>109</v>
       </c>
-      <c r="AP22" t="s">
-        <v>109</v>
-      </c>
       <c r="AQ22" t="s">
-        <v>110</v>
-      </c>
-      <c r="AR22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AX22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AY22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AZ22" t="s">
-        <v>52</v>
+        <v>109</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>109</v>
+      </c>
+      <c r="BA22" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB22" t="s">
+        <v>109</v>
       </c>
       <c r="BC22" t="s">
-        <v>109</v>
-      </c>
-      <c r="BD22" t="s">
-        <v>52</v>
-      </c>
-      <c r="BE22" t="s">
+        <v>52</v>
+      </c>
+      <c r="BJ22" t="s">
+        <v>109</v>
+      </c>
+      <c r="BK22" t="s">
+        <v>52</v>
+      </c>
+      <c r="BL22" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>151</v>
       </c>
@@ -3927,35 +4233,35 @@
       <c r="AM23" t="s">
         <v>52</v>
       </c>
-      <c r="AP23" t="s">
-        <v>109</v>
-      </c>
       <c r="AQ23" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR23" t="s">
-        <v>52</v>
-      </c>
-      <c r="AX23" t="s">
-        <v>109</v>
-      </c>
-      <c r="AY23" t="s">
-        <v>109</v>
-      </c>
-      <c r="AZ23" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>52</v>
+      </c>
+      <c r="BA23" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB23" t="s">
+        <v>109</v>
       </c>
       <c r="BC23" t="s">
-        <v>52</v>
-      </c>
-      <c r="BD23" t="s">
-        <v>52</v>
-      </c>
-      <c r="BE23" t="s">
+        <v>110</v>
+      </c>
+      <c r="BJ23" t="s">
+        <v>52</v>
+      </c>
+      <c r="BK23" t="s">
+        <v>52</v>
+      </c>
+      <c r="BL23" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>151</v>
       </c>
@@ -4043,35 +4349,35 @@
       <c r="AM24" t="s">
         <v>110</v>
       </c>
-      <c r="AP24" t="s">
-        <v>109</v>
-      </c>
       <c r="AQ24" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR24" t="s">
-        <v>52</v>
-      </c>
-      <c r="AX24" t="s">
-        <v>109</v>
-      </c>
-      <c r="AY24" t="s">
-        <v>109</v>
-      </c>
-      <c r="AZ24" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>52</v>
+      </c>
+      <c r="BA24" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB24" t="s">
+        <v>109</v>
       </c>
       <c r="BC24" t="s">
-        <v>52</v>
-      </c>
-      <c r="BD24" t="s">
-        <v>52</v>
-      </c>
-      <c r="BE24" t="s">
+        <v>110</v>
+      </c>
+      <c r="BJ24" t="s">
+        <v>52</v>
+      </c>
+      <c r="BK24" t="s">
+        <v>52</v>
+      </c>
+      <c r="BL24" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>151</v>
       </c>
@@ -4159,35 +4465,35 @@
       <c r="AM25" t="s">
         <v>109</v>
       </c>
-      <c r="AP25" t="s">
-        <v>109</v>
-      </c>
       <c r="AQ25" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR25" t="s">
-        <v>52</v>
-      </c>
-      <c r="AX25" t="s">
-        <v>109</v>
-      </c>
-      <c r="AY25" t="s">
-        <v>109</v>
-      </c>
-      <c r="AZ25" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>52</v>
+      </c>
+      <c r="BA25" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB25" t="s">
+        <v>109</v>
       </c>
       <c r="BC25" t="s">
-        <v>52</v>
-      </c>
-      <c r="BD25" t="s">
-        <v>52</v>
-      </c>
-      <c r="BE25" t="s">
+        <v>110</v>
+      </c>
+      <c r="BJ25" t="s">
+        <v>52</v>
+      </c>
+      <c r="BK25" t="s">
+        <v>52</v>
+      </c>
+      <c r="BL25" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>151</v>
       </c>
@@ -4275,35 +4581,35 @@
       <c r="AM26" t="s">
         <v>110</v>
       </c>
-      <c r="AP26" t="s">
-        <v>109</v>
-      </c>
       <c r="AQ26" t="s">
-        <v>110</v>
-      </c>
-      <c r="AR26" t="s">
-        <v>52</v>
-      </c>
-      <c r="AX26" t="s">
-        <v>109</v>
-      </c>
-      <c r="AY26" t="s">
-        <v>109</v>
-      </c>
-      <c r="AZ26" t="s">
-        <v>52</v>
+        <v>109</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>52</v>
+      </c>
+      <c r="BA26" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB26" t="s">
+        <v>109</v>
       </c>
       <c r="BC26" t="s">
-        <v>109</v>
-      </c>
-      <c r="BD26" t="s">
-        <v>52</v>
-      </c>
-      <c r="BE26" t="s">
+        <v>52</v>
+      </c>
+      <c r="BJ26" t="s">
+        <v>109</v>
+      </c>
+      <c r="BK26" t="s">
+        <v>52</v>
+      </c>
+      <c r="BL26" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>151</v>
       </c>
@@ -4391,35 +4697,35 @@
       <c r="AM27" t="s">
         <v>109</v>
       </c>
-      <c r="AP27" t="s">
-        <v>110</v>
-      </c>
       <c r="AQ27" t="s">
         <v>110</v>
       </c>
-      <c r="AR27" t="s">
-        <v>52</v>
-      </c>
-      <c r="AX27" t="s">
-        <v>109</v>
-      </c>
-      <c r="AY27" t="s">
-        <v>109</v>
-      </c>
-      <c r="AZ27" t="s">
-        <v>52</v>
+      <c r="AS27" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>52</v>
+      </c>
+      <c r="BA27" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB27" t="s">
+        <v>109</v>
       </c>
       <c r="BC27" t="s">
-        <v>109</v>
-      </c>
-      <c r="BD27" t="s">
-        <v>52</v>
-      </c>
-      <c r="BE27" t="s">
+        <v>52</v>
+      </c>
+      <c r="BJ27" t="s">
+        <v>109</v>
+      </c>
+      <c r="BK27" t="s">
+        <v>52</v>
+      </c>
+      <c r="BL27" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>151</v>
       </c>
@@ -4507,35 +4813,35 @@
       <c r="AM28" t="s">
         <v>109</v>
       </c>
-      <c r="AP28" t="s">
-        <v>110</v>
-      </c>
       <c r="AQ28" t="s">
         <v>110</v>
       </c>
-      <c r="AR28" t="s">
-        <v>52</v>
-      </c>
-      <c r="AX28" t="s">
-        <v>109</v>
-      </c>
-      <c r="AY28" t="s">
-        <v>109</v>
-      </c>
-      <c r="AZ28" t="s">
-        <v>52</v>
+      <c r="AS28" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>52</v>
+      </c>
+      <c r="BA28" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB28" t="s">
+        <v>109</v>
       </c>
       <c r="BC28" t="s">
         <v>52</v>
       </c>
-      <c r="BD28" t="s">
-        <v>52</v>
-      </c>
-      <c r="BE28" t="s">
+      <c r="BJ28" t="s">
+        <v>52</v>
+      </c>
+      <c r="BK28" t="s">
+        <v>52</v>
+      </c>
+      <c r="BL28" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>151</v>
       </c>
@@ -4626,35 +4932,35 @@
       <c r="AM29" t="s">
         <v>109</v>
       </c>
-      <c r="AP29" t="s">
-        <v>109</v>
-      </c>
       <c r="AQ29" t="s">
-        <v>110</v>
-      </c>
-      <c r="AR29" t="s">
-        <v>110</v>
-      </c>
-      <c r="AX29" t="s">
-        <v>109</v>
-      </c>
-      <c r="AY29" t="s">
-        <v>109</v>
-      </c>
-      <c r="AZ29" t="s">
-        <v>52</v>
+        <v>109</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>110</v>
+      </c>
+      <c r="BA29" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB29" t="s">
+        <v>109</v>
       </c>
       <c r="BC29" t="s">
-        <v>109</v>
-      </c>
-      <c r="BD29" t="s">
-        <v>109</v>
-      </c>
-      <c r="BE29" t="s">
+        <v>52</v>
+      </c>
+      <c r="BJ29" t="s">
+        <v>109</v>
+      </c>
+      <c r="BK29" t="s">
+        <v>109</v>
+      </c>
+      <c r="BL29" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>151</v>
       </c>
@@ -4742,35 +5048,35 @@
       <c r="AM30" t="s">
         <v>109</v>
       </c>
-      <c r="AP30" t="s">
-        <v>110</v>
-      </c>
       <c r="AQ30" t="s">
         <v>110</v>
       </c>
-      <c r="AR30" t="s">
-        <v>110</v>
-      </c>
-      <c r="AX30" t="s">
-        <v>109</v>
-      </c>
-      <c r="AY30" t="s">
-        <v>110</v>
-      </c>
-      <c r="AZ30" t="s">
+      <c r="AS30" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>110</v>
+      </c>
+      <c r="BA30" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB30" t="s">
         <v>110</v>
       </c>
       <c r="BC30" t="s">
-        <v>109</v>
-      </c>
-      <c r="BD30" t="s">
-        <v>110</v>
-      </c>
-      <c r="BE30" t="s">
+        <v>110</v>
+      </c>
+      <c r="BJ30" t="s">
+        <v>109</v>
+      </c>
+      <c r="BK30" t="s">
+        <v>110</v>
+      </c>
+      <c r="BL30" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>151</v>
       </c>
@@ -4858,35 +5164,35 @@
       <c r="AM31" t="s">
         <v>110</v>
       </c>
-      <c r="AP31" t="s">
-        <v>109</v>
-      </c>
       <c r="AQ31" t="s">
-        <v>110</v>
-      </c>
-      <c r="AR31" t="s">
-        <v>52</v>
-      </c>
-      <c r="AX31" t="s">
-        <v>110</v>
-      </c>
-      <c r="AY31" t="s">
-        <v>52</v>
-      </c>
-      <c r="AZ31" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>52</v>
+      </c>
+      <c r="BA31" t="s">
+        <v>110</v>
+      </c>
+      <c r="BB31" t="s">
         <v>52</v>
       </c>
       <c r="BC31" t="s">
         <v>52</v>
       </c>
-      <c r="BD31" t="s">
-        <v>109</v>
-      </c>
-      <c r="BE31" t="s">
+      <c r="BJ31" t="s">
+        <v>52</v>
+      </c>
+      <c r="BK31" t="s">
+        <v>109</v>
+      </c>
+      <c r="BL31" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>151</v>
       </c>
@@ -4974,35 +5280,35 @@
       <c r="AM32" t="s">
         <v>109</v>
       </c>
-      <c r="AP32" t="s">
-        <v>109</v>
-      </c>
       <c r="AQ32" t="s">
-        <v>110</v>
-      </c>
-      <c r="AR32" t="s">
-        <v>52</v>
-      </c>
-      <c r="AX32" t="s">
-        <v>109</v>
-      </c>
-      <c r="AY32" t="s">
-        <v>52</v>
-      </c>
-      <c r="AZ32" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>52</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB32" t="s">
         <v>52</v>
       </c>
       <c r="BC32" t="s">
         <v>52</v>
       </c>
-      <c r="BD32" t="s">
-        <v>109</v>
-      </c>
-      <c r="BE32" t="s">
+      <c r="BJ32" t="s">
+        <v>52</v>
+      </c>
+      <c r="BK32" t="s">
+        <v>109</v>
+      </c>
+      <c r="BL32" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>151</v>
       </c>
@@ -5090,35 +5396,35 @@
       <c r="AM33" t="s">
         <v>109</v>
       </c>
-      <c r="AP33" t="s">
-        <v>109</v>
-      </c>
       <c r="AQ33" t="s">
-        <v>110</v>
-      </c>
-      <c r="AR33" t="s">
-        <v>52</v>
-      </c>
-      <c r="AX33" t="s">
-        <v>109</v>
-      </c>
-      <c r="AY33" t="s">
-        <v>52</v>
-      </c>
-      <c r="AZ33" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>52</v>
+      </c>
+      <c r="BA33" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB33" t="s">
         <v>52</v>
       </c>
       <c r="BC33" t="s">
         <v>52</v>
       </c>
-      <c r="BD33" t="s">
-        <v>109</v>
-      </c>
-      <c r="BE33" t="s">
+      <c r="BJ33" t="s">
+        <v>52</v>
+      </c>
+      <c r="BK33" t="s">
+        <v>109</v>
+      </c>
+      <c r="BL33" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>151</v>
       </c>
@@ -5206,35 +5512,35 @@
       <c r="AM34" t="s">
         <v>109</v>
       </c>
-      <c r="AP34" t="s">
-        <v>109</v>
-      </c>
       <c r="AQ34" t="s">
         <v>109</v>
       </c>
-      <c r="AR34" t="s">
-        <v>52</v>
-      </c>
-      <c r="AX34" t="s">
-        <v>109</v>
-      </c>
-      <c r="AY34" t="s">
-        <v>52</v>
-      </c>
-      <c r="AZ34" t="s">
-        <v>110</v>
+      <c r="AS34" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>52</v>
+      </c>
+      <c r="BA34" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB34" t="s">
+        <v>52</v>
       </c>
       <c r="BC34" t="s">
-        <v>52</v>
-      </c>
-      <c r="BD34" t="s">
-        <v>109</v>
-      </c>
-      <c r="BE34" t="s">
+        <v>110</v>
+      </c>
+      <c r="BJ34" t="s">
+        <v>52</v>
+      </c>
+      <c r="BK34" t="s">
+        <v>109</v>
+      </c>
+      <c r="BL34" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>151</v>
       </c>
@@ -5325,35 +5631,35 @@
       <c r="AM35" t="s">
         <v>109</v>
       </c>
-      <c r="AP35" t="s">
-        <v>109</v>
-      </c>
       <c r="AQ35" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR35" t="s">
-        <v>110</v>
-      </c>
-      <c r="AX35" t="s">
-        <v>109</v>
-      </c>
-      <c r="AY35" t="s">
-        <v>110</v>
-      </c>
-      <c r="AZ35" t="s">
-        <v>52</v>
+        <v>109</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>110</v>
+      </c>
+      <c r="BA35" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB35" t="s">
+        <v>110</v>
       </c>
       <c r="BC35" t="s">
         <v>52</v>
       </c>
-      <c r="BD35" t="s">
-        <v>109</v>
-      </c>
-      <c r="BE35" t="s">
+      <c r="BJ35" t="s">
+        <v>52</v>
+      </c>
+      <c r="BK35" t="s">
+        <v>109</v>
+      </c>
+      <c r="BL35" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>151</v>
       </c>
@@ -5444,35 +5750,35 @@
       <c r="AM36" t="s">
         <v>110</v>
       </c>
-      <c r="AP36" t="s">
-        <v>109</v>
-      </c>
       <c r="AQ36" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR36" t="s">
-        <v>109</v>
-      </c>
-      <c r="AX36" t="s">
-        <v>109</v>
-      </c>
-      <c r="AY36" t="s">
-        <v>52</v>
-      </c>
-      <c r="AZ36" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>109</v>
+      </c>
+      <c r="BA36" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB36" t="s">
         <v>52</v>
       </c>
       <c r="BC36" t="s">
         <v>52</v>
       </c>
-      <c r="BD36" t="s">
-        <v>109</v>
-      </c>
-      <c r="BE36" t="s">
+      <c r="BJ36" t="s">
+        <v>52</v>
+      </c>
+      <c r="BK36" t="s">
+        <v>109</v>
+      </c>
+      <c r="BL36" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>181</v>
       </c>
@@ -5557,43 +5863,216 @@
       <c r="AM37" t="s">
         <v>97</v>
       </c>
-      <c r="AN37" t="s">
-        <v>110</v>
-      </c>
       <c r="AO37" t="s">
         <v>110</v>
       </c>
       <c r="AP37" t="s">
         <v>110</v>
       </c>
-      <c r="AS37" t="s">
-        <v>184</v>
-      </c>
-      <c r="AT37" t="s">
-        <v>184</v>
+      <c r="AQ37" t="s">
+        <v>110</v>
       </c>
       <c r="AU37" t="s">
         <v>184</v>
       </c>
-      <c r="BA37" t="s">
+      <c r="AW37" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX37" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE37" t="s">
         <v>166</v>
       </c>
-      <c r="BE37" t="s">
-        <v>109</v>
-      </c>
-      <c r="BF37" t="s">
+      <c r="BL37" t="s">
+        <v>109</v>
+      </c>
+      <c r="BM37" t="s">
         <v>185</v>
       </c>
-      <c r="BG37" t="s">
+      <c r="BN37" t="s">
         <v>185</v>
       </c>
-      <c r="BH37" t="s">
+      <c r="BP37" t="s">
         <v>192</v>
       </c>
-      <c r="BI37" t="s">
-        <v>110</v>
-      </c>
-      <c r="BJ37" t="s">
+      <c r="BQ37" t="s">
+        <v>110</v>
+      </c>
+      <c r="BR37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:85" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>217</v>
+      </c>
+      <c r="B38" t="s">
+        <v>218</v>
+      </c>
+      <c r="C38" t="s">
+        <v>219</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>45</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>48</v>
+      </c>
+      <c r="J38" t="s">
+        <v>222</v>
+      </c>
+      <c r="K38" t="s">
+        <v>52</v>
+      </c>
+      <c r="L38" t="s">
+        <v>221</v>
+      </c>
+      <c r="M38" t="s">
+        <v>52</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="O38" t="s">
+        <v>131</v>
+      </c>
+      <c r="P38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>52</v>
+      </c>
+      <c r="R38" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="T38" t="s">
+        <v>110</v>
+      </c>
+      <c r="U38" t="s">
+        <v>110</v>
+      </c>
+      <c r="V38" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ38" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AR38" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT38" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV38" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC38" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD38" t="s">
+        <v>110</v>
+      </c>
+      <c r="BF38" t="s">
+        <v>110</v>
+      </c>
+      <c r="BG38" t="s">
+        <v>109</v>
+      </c>
+      <c r="BH38" t="s">
+        <v>110</v>
+      </c>
+      <c r="BI38" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="BO38" t="s">
+        <v>110</v>
+      </c>
+      <c r="BS38" t="s">
+        <v>110</v>
+      </c>
+      <c r="BT38" t="s">
+        <v>110</v>
+      </c>
+      <c r="BU38" t="s">
+        <v>109</v>
+      </c>
+      <c r="BV38" t="s">
+        <v>110</v>
+      </c>
+      <c r="BW38" t="s">
+        <v>109</v>
+      </c>
+      <c r="BX38" t="s">
+        <v>109</v>
+      </c>
+      <c r="BY38" t="s">
+        <v>109</v>
+      </c>
+      <c r="BZ38" t="s">
+        <v>109</v>
+      </c>
+      <c r="CA38" t="s">
+        <v>109</v>
+      </c>
+      <c r="CB38" t="s">
+        <v>109</v>
+      </c>
+      <c r="CC38" t="s">
+        <v>110</v>
+      </c>
+      <c r="CD38" t="s">
+        <v>109</v>
+      </c>
+      <c r="CE38" t="s">
+        <v>109</v>
+      </c>
+      <c r="CF38" t="s">
+        <v>109</v>
+      </c>
+      <c r="CG38" t="s">
         <v>110</v>
       </c>
     </row>
